--- a/data/arved.xlsx
+++ b/data/arved.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH9"/>
+  <dimension ref="A1:AH12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1437,6 +1437,318 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1024</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
